--- a/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hooyu\Documents\카카오톡 받은 파일\sql모음\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>REVIEW_BOARD_NO</t>
   </si>
@@ -155,10 +155,6 @@
   </si>
   <si>
     <t>또사먹습니다.28</t>
-  </si>
-  <si>
-    <t>SEQ_REV.NEXTVAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,7 +490,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A29"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -541,8 +537,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>42</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -570,8 +566,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -599,8 +595,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -628,8 +624,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -657,8 +653,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -686,8 +682,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
+      <c r="A7" s="1">
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -715,8 +711,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
@@ -744,8 +740,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -773,8 +769,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>42</v>
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -802,8 +798,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -831,8 +827,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -860,8 +856,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -889,8 +885,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -918,8 +914,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -947,8 +943,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>42</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -976,8 +972,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>42</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>4</v>
@@ -1005,8 +1001,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>42</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1034,8 +1030,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>42</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>5</v>
@@ -1063,8 +1059,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>42</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
@@ -1092,8 +1088,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -1121,8 +1117,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
@@ -1150,8 +1146,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>6</v>
@@ -1179,8 +1175,8 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>6</v>
@@ -1208,8 +1204,8 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>6</v>
@@ -1237,8 +1233,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
+      <c r="A26" s="1">
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>7</v>
@@ -1266,8 +1262,8 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
+      <c r="A27" s="1">
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -1295,8 +1291,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
+      <c r="A28" s="1">
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>7</v>
@@ -1324,8 +1320,8 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>42</v>
+      <c r="A29" s="1">
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>

--- a/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>REVIEW_BOARD_NO</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>LIKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYSDATE	</t>
   </si>
   <si>
     <t>강추</t>
@@ -490,7 +487,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,14 +543,11 @@
       <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -575,14 +569,11 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -604,14 +595,11 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -633,14 +621,11 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -662,14 +647,11 @@
       <c r="C6" s="1">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -691,14 +673,11 @@
       <c r="C7" s="1">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -720,14 +699,11 @@
       <c r="C8" s="1">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -749,14 +725,11 @@
       <c r="C9" s="1">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -778,14 +751,11 @@
       <c r="C10" s="1">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -807,14 +777,11 @@
       <c r="C11" s="1">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -836,14 +803,11 @@
       <c r="C12" s="1">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -865,14 +829,11 @@
       <c r="C13" s="1">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -894,14 +855,11 @@
       <c r="C14" s="1">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -923,14 +881,11 @@
       <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -952,14 +907,11 @@
       <c r="C16" s="1">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -981,14 +933,11 @@
       <c r="C17" s="1">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -1010,14 +959,11 @@
       <c r="C18" s="1">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -1039,14 +985,11 @@
       <c r="C19" s="1">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1068,14 +1011,11 @@
       <c r="C20" s="1">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1097,14 +1037,11 @@
       <c r="C21" s="1">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1126,14 +1063,11 @@
       <c r="C22" s="1">
         <v>51</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1155,14 +1089,11 @@
       <c r="C23" s="1">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1184,14 +1115,11 @@
       <c r="C24" s="1">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1213,14 +1141,11 @@
       <c r="C25" s="1">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1242,14 +1167,11 @@
       <c r="C26" s="1">
         <v>58</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1271,14 +1193,11 @@
       <c r="C27" s="1">
         <v>60</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1300,14 +1219,11 @@
       <c r="C28" s="1">
         <v>62</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1329,14 +1245,11 @@
       <c r="C29" s="1">
         <v>64</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>

--- a/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
@@ -50,9 +50,6 @@
     <t>REVIEW_RATE</t>
   </si>
   <si>
-    <t>LIKE</t>
-  </si>
-  <si>
     <t>강추</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,6 +149,10 @@
   </si>
   <si>
     <t>또사먹습니다.28</t>
+  </si>
+  <si>
+    <t>LIKE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,7 +488,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,7 +501,7 @@
     <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -530,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -544,10 +545,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -570,10 +571,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -596,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -622,10 +623,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -648,10 +649,10 @@
         <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -674,10 +675,10 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -700,10 +701,10 @@
         <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -726,10 +727,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -752,10 +753,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -778,10 +779,10 @@
         <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -804,10 +805,10 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
@@ -830,10 +831,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
@@ -856,10 +857,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
@@ -882,10 +883,10 @@
         <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -908,10 +909,10 @@
         <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1">
         <v>0</v>
@@ -934,10 +935,10 @@
         <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1">
         <v>0</v>
@@ -960,10 +961,10 @@
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
@@ -986,10 +987,10 @@
         <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="1">
         <v>0</v>
@@ -1012,10 +1013,10 @@
         <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20" s="1">
         <v>0</v>
@@ -1038,10 +1039,10 @@
         <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -1064,10 +1065,10 @@
         <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="1">
         <v>0</v>
@@ -1090,10 +1091,10 @@
         <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1">
         <v>0</v>
@@ -1116,10 +1117,10 @@
         <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1142,10 +1143,10 @@
         <v>57</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -1168,10 +1169,10 @@
         <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1">
         <v>0</v>
@@ -1194,10 +1195,10 @@
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -1220,10 +1221,10 @@
         <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -1246,10 +1247,10 @@
         <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1">
         <v>0</v>

--- a/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
   <si>
     <t>REVIEW_BOARD_NO</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>LIKE_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSDATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,6 +548,9 @@
       <c r="C2" s="1">
         <v>15</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
@@ -569,6 +576,9 @@
       </c>
       <c r="C3" s="1">
         <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -596,6 +606,9 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
@@ -622,6 +635,9 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
@@ -648,6 +664,9 @@
       <c r="C6" s="1">
         <v>22</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -674,6 +693,9 @@
       <c r="C7" s="1">
         <v>23</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,6 +722,9 @@
       <c r="C8" s="1">
         <v>24</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
@@ -726,6 +751,9 @@
       <c r="C9" s="1">
         <v>25</v>
       </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
@@ -752,6 +780,9 @@
       <c r="C10" s="1">
         <v>26</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
@@ -778,6 +809,9 @@
       <c r="C11" s="1">
         <v>27</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,6 +838,9 @@
       <c r="C12" s="1">
         <v>28</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
@@ -830,6 +867,9 @@
       <c r="C13" s="1">
         <v>33</v>
       </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
@@ -856,6 +896,9 @@
       <c r="C14" s="1">
         <v>34</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,6 +925,9 @@
       <c r="C15" s="1">
         <v>37</v>
       </c>
+      <c r="D15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,6 +954,9 @@
       <c r="C16" s="1">
         <v>38</v>
       </c>
+      <c r="D16" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,6 +983,9 @@
       <c r="C17" s="1">
         <v>39</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,6 +1012,9 @@
       <c r="C18" s="1">
         <v>41</v>
       </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,6 +1041,9 @@
       <c r="C19" s="1">
         <v>42</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,6 +1070,9 @@
       <c r="C20" s="1">
         <v>44</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
@@ -1038,6 +1099,9 @@
       <c r="C21" s="1">
         <v>45</v>
       </c>
+      <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,6 +1128,9 @@
       <c r="C22" s="1">
         <v>51</v>
       </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,6 +1157,9 @@
       <c r="C23" s="1">
         <v>53</v>
       </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,6 +1186,9 @@
       <c r="C24" s="1">
         <v>54</v>
       </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E24" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,6 +1215,9 @@
       <c r="C25" s="1">
         <v>57</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1168,6 +1244,9 @@
       <c r="C26" s="1">
         <v>58</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1194,6 +1273,9 @@
       <c r="C27" s="1">
         <v>60</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,6 +1302,9 @@
       <c r="C28" s="1">
         <v>62</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,6 +1330,9 @@
       </c>
       <c r="C29" s="1">
         <v>64</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>11</v>

--- a/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>REVIEW_BOARD_NO</t>
   </si>
@@ -157,6 +157,90 @@
   <si>
     <t>SYSDATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>또사먹습니다.29</t>
+  </si>
+  <si>
+    <t>또사먹습니다.30</t>
+  </si>
+  <si>
+    <t>또사먹습니다.31</t>
+  </si>
+  <si>
+    <t>또사먹습니다.32</t>
+  </si>
+  <si>
+    <t>또사먹습니다.33</t>
+  </si>
+  <si>
+    <t>또사먹습니다.34</t>
+  </si>
+  <si>
+    <t>또사먹습니다.35</t>
+  </si>
+  <si>
+    <t>또사먹습니다.36</t>
+  </si>
+  <si>
+    <t>또사먹습니다.37</t>
+  </si>
+  <si>
+    <t>또사먹습니다.38</t>
+  </si>
+  <si>
+    <t>또사먹습니다.39</t>
+  </si>
+  <si>
+    <t>또사먹습니다.40</t>
+  </si>
+  <si>
+    <t>또사먹습니다.41</t>
+  </si>
+  <si>
+    <t>또사먹습니다.42</t>
+  </si>
+  <si>
+    <t>또사먹습니다.43</t>
+  </si>
+  <si>
+    <t>또사먹습니다.44</t>
+  </si>
+  <si>
+    <t>또사먹습니다.45</t>
+  </si>
+  <si>
+    <t>또사먹습니다.46</t>
+  </si>
+  <si>
+    <t>또사먹습니다.47</t>
+  </si>
+  <si>
+    <t>또사먹습니다.48</t>
+  </si>
+  <si>
+    <t>또사먹습니다.49</t>
+  </si>
+  <si>
+    <t>또사먹습니다.50</t>
+  </si>
+  <si>
+    <t>또사먹습니다.51</t>
+  </si>
+  <si>
+    <t>또사먹습니다.52</t>
+  </si>
+  <si>
+    <t>또사먹습니다.53</t>
+  </si>
+  <si>
+    <t>또사먹습니다.54</t>
+  </si>
+  <si>
+    <t>또사먹습니다.55</t>
+  </si>
+  <si>
+    <t>또사먹습니다.56</t>
   </si>
 </sst>
 </file>
@@ -489,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1350,6 +1434,818 @@
         <v>23</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>72</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>73</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>162</v>
+      </c>
+      <c r="C33" s="1">
+        <v>74</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>162</v>
+      </c>
+      <c r="C34" s="1">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>161</v>
+      </c>
+      <c r="C35" s="1">
+        <v>82</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>161</v>
+      </c>
+      <c r="C36" s="1">
+        <v>83</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>161</v>
+      </c>
+      <c r="C37" s="1">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>160</v>
+      </c>
+      <c r="C38" s="1">
+        <v>85</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>159</v>
+      </c>
+      <c r="C39" s="1">
+        <v>88</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>158</v>
+      </c>
+      <c r="C40" s="1">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>157</v>
+      </c>
+      <c r="C41" s="1">
+        <v>90</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>156</v>
+      </c>
+      <c r="C42" s="1">
+        <v>91</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>154</v>
+      </c>
+      <c r="C43" s="1">
+        <v>94</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>153</v>
+      </c>
+      <c r="C44" s="1">
+        <v>95</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>152</v>
+      </c>
+      <c r="C45" s="1">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>3</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>151</v>
+      </c>
+      <c r="C46" s="1">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>150</v>
+      </c>
+      <c r="C47" s="1">
+        <v>98</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>132</v>
+      </c>
+      <c r="C48" s="1">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="I48" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>133</v>
+      </c>
+      <c r="C49" s="1">
+        <v>101</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>134</v>
+      </c>
+      <c r="C50" s="1">
+        <v>103</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>135</v>
+      </c>
+      <c r="C51" s="1">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2</v>
+      </c>
+      <c r="I51" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>136</v>
+      </c>
+      <c r="C52" s="1">
+        <v>108</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>137</v>
+      </c>
+      <c r="C53" s="1">
+        <v>110</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>138</v>
+      </c>
+      <c r="C54" s="1">
+        <v>111</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>139</v>
+      </c>
+      <c r="C55" s="1">
+        <v>113</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>140</v>
+      </c>
+      <c r="C56" s="1">
+        <v>114</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>3</v>
+      </c>
+      <c r="I56" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>141</v>
+      </c>
+      <c r="C57" s="1">
+        <v>115</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
+++ b/샘플데이터/BROCOLLI REVIEW SAMPLE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Team_broccoli\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5349EA36-A282-47B7-801F-EF02615234D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>REVIEW_BOARD_NO</t>
   </si>
@@ -152,17 +153,13 @@
   </si>
   <si>
     <t>LIKE_COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSDATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,11 +199,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,28 +491,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,13 +522,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -538,7 +541,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -548,13 +551,13 @@
       <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2">
+        <v>44141</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="1">
@@ -567,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -577,13 +580,13 @@
       <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2">
+        <v>44142</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="1">
@@ -596,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -606,13 +609,13 @@
       <c r="C4" s="1">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2">
+        <v>44143</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="1">
@@ -625,7 +628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -635,13 +638,13 @@
       <c r="C5" s="1">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2">
+        <v>44144</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="1">
@@ -654,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -664,13 +667,13 @@
       <c r="C6" s="1">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="2">
+        <v>44145</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1">
@@ -683,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -693,13 +696,13 @@
       <c r="C7" s="1">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="2">
+        <v>44146</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1">
@@ -712,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -722,13 +725,13 @@
       <c r="C8" s="1">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2">
+        <v>44147</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="1">
@@ -741,7 +744,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -751,13 +754,13 @@
       <c r="C9" s="1">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="2">
+        <v>44148</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="1">
@@ -770,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -780,13 +783,13 @@
       <c r="C10" s="1">
         <v>26</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2">
+        <v>44149</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1">
@@ -799,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -809,13 +812,13 @@
       <c r="C11" s="1">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2">
+        <v>44150</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="1">
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -838,13 +841,13 @@
       <c r="C12" s="1">
         <v>28</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="2">
+        <v>44151</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="1">
@@ -857,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -867,13 +870,13 @@
       <c r="C13" s="1">
         <v>33</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="2">
+        <v>44152</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1">
@@ -886,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -896,13 +899,13 @@
       <c r="C14" s="1">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="2">
+        <v>44153</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="1">
@@ -915,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -925,13 +928,13 @@
       <c r="C15" s="1">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="2">
+        <v>44154</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="1">
@@ -944,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -954,13 +957,13 @@
       <c r="C16" s="1">
         <v>38</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="2">
+        <v>44155</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="1">
@@ -973,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -983,13 +986,13 @@
       <c r="C17" s="1">
         <v>39</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="2">
+        <v>44156</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="1">
@@ -1002,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1012,13 +1015,13 @@
       <c r="C18" s="1">
         <v>41</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="2">
+        <v>44157</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="1">
@@ -1031,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1041,13 +1044,13 @@
       <c r="C19" s="1">
         <v>42</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="2">
+        <v>44158</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="1">
@@ -1060,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1070,13 +1073,13 @@
       <c r="C20" s="1">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="2">
+        <v>44159</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="1">
@@ -1089,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1099,13 +1102,13 @@
       <c r="C21" s="1">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="2">
+        <v>44160</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="1">
@@ -1118,7 +1121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1128,13 +1131,13 @@
       <c r="C22" s="1">
         <v>51</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="2">
+        <v>44161</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="1">
@@ -1147,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1157,13 +1160,13 @@
       <c r="C23" s="1">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="2">
+        <v>44162</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1">
@@ -1176,7 +1179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1186,13 +1189,13 @@
       <c r="C24" s="1">
         <v>54</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="2">
+        <v>44163</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="1">
@@ -1205,7 +1208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1215,13 +1218,13 @@
       <c r="C25" s="1">
         <v>57</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="2">
+        <v>44164</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G25" s="1">
@@ -1234,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1244,13 +1247,13 @@
       <c r="C26" s="1">
         <v>58</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="1">
@@ -1263,7 +1266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1273,13 +1276,13 @@
       <c r="C27" s="1">
         <v>60</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="2">
+        <v>44166</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G27" s="1">
@@ -1292,7 +1295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1302,13 +1305,13 @@
       <c r="C28" s="1">
         <v>62</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="2">
+        <v>44167</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G28" s="1">
@@ -1321,7 +1324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1331,13 +1334,13 @@
       <c r="C29" s="1">
         <v>64</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="2">
+        <v>44168</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="1">
